--- a/docs/meten-aan-de-robot/meetresultaten/metingen robot.xlsx
+++ b/docs/meten-aan-de-robot/meetresultaten/metingen robot.xlsx
@@ -90,7 +90,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,9 +103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +693,58 @@
       </c>
       <c r="G8">
         <v>2.7459859999999998</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(K3:K7)</f>
+        <v>0.58367740000000001</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" ref="L8:W8" si="0">AVERAGE(L3:L7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1.1765984</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1.7687052000000001</v>
+      </c>
+      <c r="R8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>2.3748266</v>
+      </c>
+      <c r="U8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>2.9549157999999998</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
